--- a/src/test/resources/testdata/APITestData.xlsx
+++ b/src/test/resources/testdata/APITestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29225"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8C95982-2770-4870-BC03-3865CA973BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4198C377-BFAB-4A1D-AC60-552C2D7C29E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CreateUserData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,16 +45,16 @@
     <t>Priyanka</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Active</t>
+    <t>female</t>
+  </si>
+  <si>
+    <t>active</t>
   </si>
   <si>
     <t>Manoj</t>
   </si>
   <si>
-    <t>Male</t>
+    <t>male</t>
   </si>
   <si>
     <t>inactive</t>
@@ -93,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -192,19 +192,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -216,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -226,7 +213,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,7 +661,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:C5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -728,10 +714,10 @@
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>8</v>
       </c>
     </row>
